--- a/data/file/01-山东在职人员导入模板.xlsx
+++ b/data/file/01-山东在职人员导入模板.xlsx
@@ -1005,10 +1005,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-&quot;￥&quot;\ * #,##0_-;\-&quot;￥&quot;\ * #,##0_-;_-&quot;￥&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;￥&quot;\ * #,##0.00_-;\-&quot;￥&quot;\ * #,##0.00_-;_-&quot;￥&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;￥&quot;\ * #,##0.00_-;\-&quot;￥&quot;\ * #,##0.00_-;_-&quot;￥&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;￥&quot;\ * #,##0_-;\-&quot;￥&quot;\ * #,##0_-;_-&quot;￥&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="37">
@@ -1705,14 +1705,14 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -2413,7 +2413,7 @@
   <dimension ref="A1:AL25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4285714285714" defaultRowHeight="12"/>
@@ -3688,11 +3688,15 @@
     <mergeCell ref="A17:AF19"/>
   </mergeCells>
   <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 S6 V6 Y6 D7 S7 V7 Y7 D8 S8 V8 Y8 D9 S9 V9 Y9 D10 S10 V10 Y10 S11 V11 Y11 S12 V12 Y12 S13 V13 Y13 S14 V14 Y14 S15 V15 Y15 D11:D15">
+      <formula1>"身份证,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q6:Q15">
+      <formula1>18264</formula1>
+      <formula2>73051</formula2>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6 F7 F8 F9 F10 F11 F12 F13 F14 F15">
       <formula1>"初中以下学历,初中及同等学历,高中及同等学历,大专,本科,硕士,博士"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 S6 V6 Y6 D7 S7 V7 Y7 D8 S8 V8 Y8 D9 S9 V9 Y9 D10 S10 V10 Y10 S11 V11 Y11 S12 V12 Y12 S13 V13 Y13 S14 V14 Y14 S15 V15 Y15 D11:D15">
-      <formula1>"身份证,其他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6 I7 I8 I9 I10 I11 I12 I13 I14 I15">
       <formula1>"广东,北京,天津,河北,山西,内蒙古,辽宁,吉林,黑龙江,上海,江苏,浙江,安徽,福建,江西,山东,河南,湖北,湖南,广西,海南,重庆,四川,贵州,云南,西藏,陕西,甘肃,青海,宁夏,新疆,台湾,香港,澳门,外籍或其他"</formula1>
@@ -3701,22 +3705,18 @@
       <formula1>18264</formula1>
       <formula2>54789</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C12 C13 C14 C15 C6:C10">
-      <formula1>"男,女"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6 H7 H8 H9 H10 H11 H12 H13 H14 H15">
-      <formula1>1</formula1>
-      <formula2>150</formula2>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6 L7 L8 L9 L10 L11 L12 L13 L14 L15">
       <formula1>"代理合同,劳动合同,劳务派遣,非全日制用工"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6 K7 K8 K9 K10 K11 K12 K13 K14 K15">
       <formula1>"个险营销,银保,团险,电销,其他"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q6:Q15">
-      <formula1>18264</formula1>
-      <formula2>73051</formula2>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6 H7 H8 H9 H10 H11 H12 H13 H14 H15">
+      <formula1>1</formula1>
+      <formula2>150</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C12 C13 C14 C15 C6:C10">
+      <formula1>"男,女"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -6154,9 +6154,9 @@
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1 Q2 Q3 Q4 Q5 Q6 Q7 Q8 Q9 Q10 Q11 Q12 Q13 Q14 Q15 Q16 Q17 Q18 Q19 Q20 Q21 Q22 Q23 Q24 Q25 Q26 Q27 Q28 Q29 Q30 Q31 Q32 Q33 Q34 Q35 Q36 Q37 Q38 Q39 Q40">
-      <formula1>18264</formula1>
-      <formula2>73051</formula2>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H40">
+      <formula1>1</formula1>
+      <formula2>150</formula2>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1 L2 L3 L4 L5 L6 L7 L8 L9 L10 L11 L12 L13 L14 L15 L16 L17 L18 L19 L20 L21 L22 L23 L24 L25 L26 L27 L28 L29 L30 L31 L32 L33 L34 L35 L36 L37 L38 L39 L40">
       <formula1>"代理合同,劳动合同,劳务派遣,非全日制用工"</formula1>
@@ -6164,15 +6164,15 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K2 K3 K4 K5 K6 K7 K8 K9 K10 K11 K12 K13 K14 K15 K16 K17 K18 K19 K20 K21 K22 K23 K24 K25 K26 K27 K28 K29 K30 K31 K32 K33 K34 K35 K36 K37 K38 K39 K40">
       <formula1>"个险营销,银保,团险,电销,其他"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H40">
-      <formula1>1</formula1>
-      <formula2>150</formula2>
+    <dataValidation type="date" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1 Q2 Q3 Q4 Q5 Q6 Q7 Q8 Q9 Q10 Q11 Q12 Q13 Q14 Q15 Q16 Q17 Q18 Q19 Q20 Q21 Q22 Q23 Q24 Q25 Q26 Q27 Q28 Q29 Q30 Q31 Q32 Q33 Q34 Q35 Q36 Q37 Q38 Q39 Q40">
+      <formula1>18264</formula1>
+      <formula2>73051</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F40">
+      <formula1>"初中以下学历,初中及同等学历,高中及同等学历,大专,本科,硕士,博士"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C40">
       <formula1>"男,女"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F40">
-      <formula1>"初中以下学历,初中及同等学历,高中及同等学历,大专,本科,硕士,博士"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D40 S1:S40 V1:V40 Y1:Y40">
       <formula1>"身份证,其他"</formula1>
